--- a/team_specific_matrix/Kentucky_B.xlsx
+++ b/team_specific_matrix/Kentucky_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.196969696969697</v>
+        <v>0.2191780821917808</v>
       </c>
       <c r="C2">
-        <v>0.5492424242424242</v>
+        <v>0.5178082191780822</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007575757575757576</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.143939393939394</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1022727272727273</v>
+        <v>0.09863013698630137</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0261437908496732</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="C3">
-        <v>0.03267973856209151</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0130718954248366</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7254901960784313</v>
+        <v>0.7185929648241206</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2026143790849673</v>
+        <v>0.2160804020100502</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1111111111111111</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6388888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08609271523178808</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01324503311258278</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0728476821192053</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2185430463576159</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02649006622516556</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1788079470198675</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="R6">
-        <v>0.05960264900662252</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="S6">
-        <v>0.3443708609271523</v>
+        <v>0.3670212765957447</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.144578313253012</v>
+        <v>0.1421800947867299</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03012048192771084</v>
+        <v>0.02843601895734597</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03012048192771084</v>
+        <v>0.02843601895734597</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1686746987951807</v>
+        <v>0.1469194312796208</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006024096385542169</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1987951807228916</v>
+        <v>0.1895734597156398</v>
       </c>
       <c r="R7">
-        <v>0.04216867469879518</v>
+        <v>0.05213270142180094</v>
       </c>
       <c r="S7">
-        <v>0.3795180722891566</v>
+        <v>0.4075829383886256</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09601873536299765</v>
+        <v>0.09515260323159784</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02107728337236534</v>
+        <v>0.02154398563734291</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0468384074941452</v>
+        <v>0.04308797127468582</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1288056206088993</v>
+        <v>0.1310592459605027</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0117096018735363</v>
+        <v>0.0125673249551167</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.180327868852459</v>
+        <v>0.1633752244165171</v>
       </c>
       <c r="R8">
-        <v>0.1147540983606557</v>
+        <v>0.1149012567324955</v>
       </c>
       <c r="S8">
-        <v>0.4004683840749415</v>
+        <v>0.4183123877917415</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09625668449197861</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03208556149732621</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.053475935828877</v>
+        <v>0.04924242424242424</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1283422459893048</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0053475935828877</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1978609625668449</v>
+        <v>0.1856060606060606</v>
       </c>
       <c r="R9">
-        <v>0.1122994652406417</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="S9">
-        <v>0.374331550802139</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1083249749247743</v>
+        <v>0.1135714285714286</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0160481444332999</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007142857142857143</v>
       </c>
       <c r="F10">
-        <v>0.06318956870611836</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1464393179538616</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01003009027081244</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1845536609829488</v>
+        <v>0.2</v>
       </c>
       <c r="R10">
-        <v>0.08726178535606821</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S10">
-        <v>0.3841524573721163</v>
+        <v>0.3864285714285715</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1592920353982301</v>
+        <v>0.1498257839721254</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06637168141592921</v>
+        <v>0.06968641114982578</v>
       </c>
       <c r="K11">
-        <v>0.1946902654867257</v>
+        <v>0.1846689895470383</v>
       </c>
       <c r="L11">
-        <v>0.5663716814159292</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01327433628318584</v>
+        <v>0.01045296167247387</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7518248175182481</v>
+        <v>0.7430167597765364</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1678832116788321</v>
+        <v>0.1731843575418995</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05109489051094891</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0291970802919708</v>
+        <v>0.0335195530726257</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7441860465116279</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.186046511627907</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06976744186046512</v>
+        <v>0.05454545454545454</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1987179487179487</v>
+        <v>0.1674008810572687</v>
       </c>
       <c r="I15">
-        <v>0.09615384615384616</v>
+        <v>0.1013215859030837</v>
       </c>
       <c r="J15">
-        <v>0.3269230769230769</v>
+        <v>0.3612334801762114</v>
       </c>
       <c r="K15">
-        <v>0.0641025641025641</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01923076923076923</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07692307692307693</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.217948717948718</v>
+        <v>0.1938325991189427</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01226993865030675</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1840490797546012</v>
+        <v>0.1569506726457399</v>
       </c>
       <c r="I16">
-        <v>0.09815950920245399</v>
+        <v>0.1121076233183857</v>
       </c>
       <c r="J16">
-        <v>0.3742331288343558</v>
+        <v>0.3991031390134529</v>
       </c>
       <c r="K16">
-        <v>0.1104294478527607</v>
+        <v>0.1076233183856502</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.049079754601227</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04294478527607362</v>
+        <v>0.04932735426008968</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1288343558282209</v>
+        <v>0.1255605381165919</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01971830985915493</v>
+        <v>0.02053388090349076</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2112676056338028</v>
+        <v>0.1930184804928131</v>
       </c>
       <c r="I17">
-        <v>0.1295774647887324</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="J17">
-        <v>0.4084507042253521</v>
+        <v>0.4291581108829569</v>
       </c>
       <c r="K17">
-        <v>0.07323943661971831</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02535211267605634</v>
+        <v>0.02258726899383984</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04225352112676056</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09014084507042254</v>
+        <v>0.09034907597535935</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01169590643274854</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2046783625730994</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="I18">
-        <v>0.1169590643274854</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J18">
-        <v>0.4210526315789473</v>
+        <v>0.4401709401709402</v>
       </c>
       <c r="K18">
-        <v>0.04678362573099415</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01754385964912281</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="N18">
-        <v>0.005847953216374269</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="O18">
-        <v>0.04093567251461988</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1345029239766082</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01453488372093023</v>
+        <v>0.01403508771929825</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.248062015503876</v>
+        <v>0.2385964912280702</v>
       </c>
       <c r="I19">
-        <v>0.09011627906976744</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="J19">
-        <v>0.3284883720930232</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="K19">
-        <v>0.1104651162790698</v>
+        <v>0.1017543859649123</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02034883720930233</v>
+        <v>0.01964912280701754</v>
       </c>
       <c r="N19">
-        <v>0.001937984496124031</v>
+        <v>0.001403508771929824</v>
       </c>
       <c r="O19">
-        <v>0.07170542635658915</v>
+        <v>0.07157894736842105</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1143410852713178</v>
+        <v>0.1129824561403509</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Kentucky_B.xlsx
+++ b/team_specific_matrix/Kentucky_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2191780821917808</v>
+        <v>0.2084367245657568</v>
       </c>
       <c r="C2">
-        <v>0.5178082191780822</v>
+        <v>0.5359801488833746</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0136986301369863</v>
+        <v>0.01240694789081886</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1506849315068493</v>
+        <v>0.1464019851116625</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09863013698630137</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02010050251256281</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="C3">
-        <v>0.03015075376884422</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01507537688442211</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7185929648241206</v>
+        <v>0.7300884955752213</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2160804020100502</v>
+        <v>0.2035398230088496</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09803921568627451</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2352941176470588</v>
+        <v>0.2321428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0797872340425532</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01595744680851064</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F6">
-        <v>0.06914893617021277</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2340425531914894</v>
+        <v>0.2322274881516588</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02127659574468085</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1595744680851064</v>
+        <v>0.1611374407582938</v>
       </c>
       <c r="R6">
-        <v>0.05319148936170213</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="S6">
-        <v>0.3670212765957447</v>
+        <v>0.3649289099526066</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1421800947867299</v>
+        <v>0.14</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02843601895734597</v>
+        <v>0.028</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02843601895734597</v>
+        <v>0.032</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1469194312796208</v>
+        <v>0.14</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.004739336492890996</v>
+        <v>0.008</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1895734597156398</v>
+        <v>0.188</v>
       </c>
       <c r="R7">
-        <v>0.05213270142180094</v>
+        <v>0.06</v>
       </c>
       <c r="S7">
-        <v>0.4075829383886256</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09515260323159784</v>
+        <v>0.09193548387096774</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02154398563734291</v>
+        <v>0.02096774193548387</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04308797127468582</v>
+        <v>0.04516129032258064</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1310592459605027</v>
+        <v>0.1274193548387097</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0125673249551167</v>
+        <v>0.01451612903225807</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1633752244165171</v>
+        <v>0.1758064516129032</v>
       </c>
       <c r="R8">
-        <v>0.1149012567324955</v>
+        <v>0.1145161290322581</v>
       </c>
       <c r="S8">
-        <v>0.4183123877917415</v>
+        <v>0.4096774193548387</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07954545454545454</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0303030303030303</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04924242424242424</v>
+        <v>0.04421768707482993</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1212121212121212</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01136363636363636</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1856060606060606</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R9">
-        <v>0.1136363636363636</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="S9">
-        <v>0.4090909090909091</v>
+        <v>0.4115646258503401</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1135714285714286</v>
+        <v>0.1157133464825773</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01714285714285714</v>
+        <v>0.01643655489809336</v>
       </c>
       <c r="E10">
-        <v>0.0007142857142857143</v>
+        <v>0.0006574621959237344</v>
       </c>
       <c r="F10">
-        <v>0.05357142857142857</v>
+        <v>0.05522682445759369</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1314285714285714</v>
+        <v>0.1275476660092045</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01142857142857143</v>
+        <v>0.01249178172255095</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2</v>
+        <v>0.2071005917159763</v>
       </c>
       <c r="R10">
-        <v>0.08571428571428572</v>
+        <v>0.08481262327416174</v>
       </c>
       <c r="S10">
-        <v>0.3864285714285715</v>
+        <v>0.3800131492439185</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1498257839721254</v>
+        <v>0.1510574018126888</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06968641114982578</v>
+        <v>0.0634441087613293</v>
       </c>
       <c r="K11">
-        <v>0.1846689895470383</v>
+        <v>0.175226586102719</v>
       </c>
       <c r="L11">
-        <v>0.5853658536585366</v>
+        <v>0.6012084592145015</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01045296167247387</v>
+        <v>0.00906344410876133</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7430167597765364</v>
+        <v>0.7523809523809524</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1731843575418995</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05027932960893855</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0335195530726257</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7454545454545455</v>
+        <v>0.765625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05454545454545454</v>
+        <v>0.046875</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1674008810572687</v>
+        <v>0.1781376518218623</v>
       </c>
       <c r="I15">
-        <v>0.1013215859030837</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J15">
-        <v>0.3612334801762114</v>
+        <v>0.3441295546558704</v>
       </c>
       <c r="K15">
-        <v>0.08370044052863436</v>
+        <v>0.08502024291497975</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01762114537444934</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07488986784140969</v>
+        <v>0.06882591093117409</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1938325991189427</v>
+        <v>0.2024291497975708</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008968609865470852</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1569506726457399</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="I16">
-        <v>0.1121076233183857</v>
+        <v>0.1062992125984252</v>
       </c>
       <c r="J16">
-        <v>0.3991031390134529</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="K16">
-        <v>0.1076233183856502</v>
+        <v>0.1062992125984252</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04035874439461883</v>
+        <v>0.04330708661417323</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04932735426008968</v>
+        <v>0.04724409448818898</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1255605381165919</v>
+        <v>0.1141732283464567</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02053388090349076</v>
+        <v>0.01971326164874552</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1930184804928131</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I17">
-        <v>0.1273100616016427</v>
+        <v>0.1308243727598566</v>
       </c>
       <c r="J17">
-        <v>0.4291581108829569</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="K17">
-        <v>0.06776180698151951</v>
+        <v>0.07168458781362007</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02258726899383984</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04928131416837783</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09034907597535935</v>
+        <v>0.09139784946236559</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0170940170940171</v>
+        <v>0.015625</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2136752136752137</v>
+        <v>0.20703125</v>
       </c>
       <c r="I18">
-        <v>0.1111111111111111</v>
+        <v>0.1171875</v>
       </c>
       <c r="J18">
-        <v>0.4401709401709402</v>
+        <v>0.43359375</v>
       </c>
       <c r="K18">
-        <v>0.03418803418803419</v>
+        <v>0.046875</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0170940170940171</v>
+        <v>0.015625</v>
       </c>
       <c r="N18">
-        <v>0.004273504273504274</v>
+        <v>0.00390625</v>
       </c>
       <c r="O18">
-        <v>0.05128205128205128</v>
+        <v>0.046875</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1111111111111111</v>
+        <v>0.11328125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01403508771929825</v>
+        <v>0.01481958762886598</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2385964912280702</v>
+        <v>0.2416237113402062</v>
       </c>
       <c r="I19">
-        <v>0.09333333333333334</v>
+        <v>0.09342783505154639</v>
       </c>
       <c r="J19">
-        <v>0.3466666666666667</v>
+        <v>0.3427835051546392</v>
       </c>
       <c r="K19">
-        <v>0.1017543859649123</v>
+        <v>0.1056701030927835</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01964912280701754</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N19">
-        <v>0.001403508771929824</v>
+        <v>0.001288659793814433</v>
       </c>
       <c r="O19">
-        <v>0.07157894736842105</v>
+        <v>0.0702319587628866</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1129824561403509</v>
+        <v>0.1095360824742268</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Kentucky_B.xlsx
+++ b/team_specific_matrix/Kentucky_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2084367245657568</v>
+        <v>0.2102689486552567</v>
       </c>
       <c r="C2">
-        <v>0.5359801488833746</v>
+        <v>0.5330073349633252</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01240694789081886</v>
+        <v>0.01222493887530562</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1464019851116625</v>
+        <v>0.1491442542787286</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09677419354838709</v>
+        <v>0.09535452322738386</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01769911504424779</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C3">
-        <v>0.03097345132743363</v>
+        <v>0.03070175438596491</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01769911504424779</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7300884955752213</v>
+        <v>0.7324561403508771</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2035398230088496</v>
+        <v>0.2017543859649123</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08928571428571429</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6785714285714286</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2321428571428572</v>
+        <v>0.2295081967213115</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08530805687203792</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01895734597156398</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="E6">
-        <v>0.004739336492890996</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F6">
-        <v>0.06161137440758294</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2322274881516588</v>
+        <v>0.2398190045248869</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02369668246445497</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1611374407582938</v>
+        <v>0.1583710407239819</v>
       </c>
       <c r="R6">
-        <v>0.04739336492890995</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="S6">
-        <v>0.3649289099526066</v>
+        <v>0.3665158371040724</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.14</v>
+        <v>0.1377952755905512</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.028</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.032</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.14</v>
+        <v>0.1377952755905512</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.188</v>
+        <v>0.1929133858267716</v>
       </c>
       <c r="R7">
-        <v>0.06</v>
+        <v>0.05905511811023622</v>
       </c>
       <c r="S7">
-        <v>0.404</v>
+        <v>0.405511811023622</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09193548387096774</v>
+        <v>0.09147286821705426</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02096774193548387</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04516129032258064</v>
+        <v>0.04496124031007752</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1274193548387097</v>
+        <v>0.1286821705426357</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01451612903225807</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1758064516129032</v>
+        <v>0.1736434108527132</v>
       </c>
       <c r="R8">
-        <v>0.1145161290322581</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="S8">
-        <v>0.4096774193548387</v>
+        <v>0.4124031007751938</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08843537414965986</v>
+        <v>0.08881578947368421</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03061224489795918</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04421768707482993</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1156462585034014</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01020408163265306</v>
+        <v>0.009868421052631578</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1904761904761905</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="R9">
-        <v>0.108843537414966</v>
+        <v>0.1085526315789474</v>
       </c>
       <c r="S9">
-        <v>0.4115646258503401</v>
+        <v>0.4046052631578947</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1157133464825773</v>
+        <v>0.1133162612035852</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01643655489809336</v>
+        <v>0.01728553137003841</v>
       </c>
       <c r="E10">
-        <v>0.0006574621959237344</v>
+        <v>0.0006402048655569782</v>
       </c>
       <c r="F10">
-        <v>0.05522682445759369</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1275476660092045</v>
+        <v>0.1261203585147247</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01249178172255095</v>
+        <v>0.01280409731113956</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2071005917159763</v>
+        <v>0.2087067861715749</v>
       </c>
       <c r="R10">
-        <v>0.08481262327416174</v>
+        <v>0.08386683738796415</v>
       </c>
       <c r="S10">
-        <v>0.3800131492439185</v>
+        <v>0.3809218950064021</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1510574018126888</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0634441087613293</v>
+        <v>0.0626865671641791</v>
       </c>
       <c r="K11">
-        <v>0.175226586102719</v>
+        <v>0.173134328358209</v>
       </c>
       <c r="L11">
-        <v>0.6012084592145015</v>
+        <v>0.6059701492537314</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00906344410876133</v>
+        <v>0.008955223880597015</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7523809523809524</v>
+        <v>0.7523364485981309</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1714285714285714</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04285714285714286</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03333333333333333</v>
+        <v>0.03271028037383177</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.765625</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1875</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.046875</v>
+        <v>0.04615384615384616</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.00390625</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1781376518218623</v>
+        <v>0.1796875</v>
       </c>
       <c r="I15">
-        <v>0.1052631578947368</v>
+        <v>0.10546875</v>
       </c>
       <c r="J15">
-        <v>0.3441295546558704</v>
+        <v>0.3359375</v>
       </c>
       <c r="K15">
-        <v>0.08502024291497975</v>
+        <v>0.08203125</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01619433198380567</v>
+        <v>0.015625</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06882591093117409</v>
+        <v>0.07421875</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2024291497975708</v>
+        <v>0.203125</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007874015748031496</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1732283464566929</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="I16">
-        <v>0.1062992125984252</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="J16">
-        <v>0.4015748031496063</v>
+        <v>0.4083969465648855</v>
       </c>
       <c r="K16">
-        <v>0.1062992125984252</v>
+        <v>0.1030534351145038</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04330708661417323</v>
+        <v>0.04198473282442748</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04724409448818898</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1141732283464567</v>
+        <v>0.1106870229007634</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01971326164874552</v>
+        <v>0.01903114186851211</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1935483870967742</v>
+        <v>0.198961937716263</v>
       </c>
       <c r="I17">
-        <v>0.1308243727598566</v>
+        <v>0.1332179930795848</v>
       </c>
       <c r="J17">
-        <v>0.4193548387096774</v>
+        <v>0.4100346020761246</v>
       </c>
       <c r="K17">
-        <v>0.07168458781362007</v>
+        <v>0.06920415224913495</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02508960573476703</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04838709677419355</v>
+        <v>0.04844290657439446</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09139784946236559</v>
+        <v>0.09688581314878893</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.015625</v>
+        <v>0.01915708812260536</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.20703125</v>
+        <v>0.2030651340996169</v>
       </c>
       <c r="I18">
-        <v>0.1171875</v>
+        <v>0.1187739463601533</v>
       </c>
       <c r="J18">
-        <v>0.43359375</v>
+        <v>0.4329501915708812</v>
       </c>
       <c r="K18">
-        <v>0.046875</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.015625</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="N18">
-        <v>0.00390625</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="O18">
-        <v>0.046875</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.11328125</v>
+        <v>0.1149425287356322</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01481958762886598</v>
+        <v>0.01496259351620948</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2416237113402062</v>
+        <v>0.2437655860349127</v>
       </c>
       <c r="I19">
-        <v>0.09342783505154639</v>
+        <v>0.09226932668329177</v>
       </c>
       <c r="J19">
-        <v>0.3427835051546392</v>
+        <v>0.3435162094763092</v>
       </c>
       <c r="K19">
-        <v>0.1056701030927835</v>
+        <v>0.1047381546134663</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02061855670103093</v>
+        <v>0.02057356608478803</v>
       </c>
       <c r="N19">
-        <v>0.001288659793814433</v>
+        <v>0.001246882793017456</v>
       </c>
       <c r="O19">
-        <v>0.0702319587628866</v>
+        <v>0.06920199501246883</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1095360824742268</v>
+        <v>0.1097256857855362</v>
       </c>
     </row>
   </sheetData>
